--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_12_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_12_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3257215.532186828</v>
+        <v>3258976.062489612</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283182</v>
       </c>
     </row>
     <row r="9">
@@ -673,16 +673,16 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>15.21022140383137</v>
+        <v>18.92112911249622</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>33.93991247395533</v>
       </c>
-      <c r="I2" t="n">
-        <v>7.808007761517031</v>
-      </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.097100052852174</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>33.93991247395533</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>33.93991247395533</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -743,13 +743,13 @@
         <v>33.93991247395533</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>33.93991247395533</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>29.89427490705985</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.89427490705984</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -822,70 +822,70 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>12.44627538834367</v>
+      </c>
+      <c r="K4" t="n">
+        <v>17.44799951871617</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
         <v>33.93991247395533</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
         <v>33.93991247395533</v>
       </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="Y4" t="n">
         <v>33.93991247395533</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>29.89427490705984</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -910,13 +910,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
+        <v>15.16194852731947</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>38.48106384277808</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,16 +946,16 @@
         <v>38.48106384277808</v>
       </c>
       <c r="S5" t="n">
-        <v>27.0180752910075</v>
+        <v>11.85612676368803</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="V5" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -977,73 +977,73 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>33.89412103271894</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
         <v>38.48106384277808</v>
-      </c>
-      <c r="H6" t="n">
-        <v>33.89412103271894</v>
-      </c>
-      <c r="I6" t="n">
-        <v>38.48106384277808</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>38.48106384277808</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>18.96187038700693</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="E7" t="n">
         <v>38.48106384277808</v>
@@ -1068,38 +1068,38 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>14.93225064571201</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
         <v>38.48106384277808</v>
       </c>
-      <c r="H7" t="n">
-        <v>33.89412103271894</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>140.6833715308335</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>175.3318063516143</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>175.3318063516143</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>175.3318063516143</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.74888350366829</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>52.26183589335039</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>81.54548989577195</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>175.3318063516146</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>175.3318063516146</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>175.3318063516146</v>
       </c>
     </row>
     <row r="9">
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -1226,13 +1226,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>136.5121319720754</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>60.77218657767918</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1271,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>175.3318063516143</v>
+        <v>175.3318063516146</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>135.10305019966</v>
+        <v>165.8541850995482</v>
       </c>
     </row>
     <row r="10">
@@ -1293,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>42.75245813069917</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.2939739422496</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>44.08089719068442</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>27.7973442634883</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1347,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>82.55401358032937</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>175.3318063516146</v>
       </c>
       <c r="W10" t="n">
-        <v>175.3318063516143</v>
+        <v>175.3318063516146</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>175.3318063516146</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1533,19 +1533,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>48.47457675531755</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1587,13 +1587,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>186.8176706595564</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,22 +1660,22 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1773,16 +1773,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856552</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712593</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>154.2390706773481</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,22 +1897,22 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881302</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>93.85094319419976</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>108.9065924712593</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2083,22 +2083,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695537</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>31.83025205764035</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2323,19 +2323,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695537</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="24">
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,13 +2532,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>225.6414338000058</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2611,7 +2611,7 @@
         <v>199.0222304576164</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2724,16 +2724,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2775,13 +2775,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>254.3711517780289</v>
       </c>
       <c r="X28" t="n">
-        <v>30.85302310518084</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2848,7 +2848,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2955,16 +2955,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -3000,16 +3000,16 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>140.3829797864969</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3085,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3189,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>239.4844875583159</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>121.625647307536</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3669,13 +3669,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>81.54417886827382</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3796,19 +3796,19 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560545</v>
       </c>
     </row>
     <row r="42">
@@ -3903,13 +3903,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>78.34975387299275</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>161.355549430153</v>
       </c>
     </row>
     <row r="44">
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4137,19 +4137,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>164.713130801099</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>80.6784213964369</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4185,7 +4185,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4197,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4321,28 +4321,28 @@
         <v>60.24866940125354</v>
       </c>
       <c r="G2" t="n">
-        <v>44.88480939738346</v>
+        <v>41.13641777246947</v>
       </c>
       <c r="H2" t="n">
-        <v>10.60206952470131</v>
+        <v>41.13641777246947</v>
       </c>
       <c r="I2" t="n">
-        <v>2.715192997916426</v>
+        <v>6.853677899787311</v>
       </c>
       <c r="J2" t="n">
         <v>2.715192997916426</v>
       </c>
       <c r="K2" t="n">
-        <v>2.715192997916426</v>
+        <v>36.31570634713221</v>
       </c>
       <c r="L2" t="n">
-        <v>36.31570634713221</v>
+        <v>69.91621969634798</v>
       </c>
       <c r="M2" t="n">
         <v>69.91621969634798</v>
       </c>
       <c r="N2" t="n">
-        <v>103.5167330455638</v>
+        <v>69.91621969634798</v>
       </c>
       <c r="O2" t="n">
         <v>103.5167330455638</v>
@@ -4357,13 +4357,13 @@
         <v>101.4769100231392</v>
       </c>
       <c r="S2" t="n">
-        <v>101.4769100231392</v>
+        <v>67.19417015045701</v>
       </c>
       <c r="T2" t="n">
-        <v>101.4769100231392</v>
+        <v>67.19417015045701</v>
       </c>
       <c r="U2" t="n">
-        <v>101.4769100231392</v>
+        <v>67.19417015045701</v>
       </c>
       <c r="V2" t="n">
         <v>67.19417015045701</v>
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>101.4769100231392</v>
+        <v>71.28067274328075</v>
       </c>
       <c r="C3" t="n">
-        <v>67.19417015045701</v>
+        <v>36.99793287059858</v>
       </c>
       <c r="D3" t="n">
-        <v>67.19417015045701</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="E3" t="n">
-        <v>67.19417015045701</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="F3" t="n">
-        <v>32.91143027777485</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="G3" t="n">
-        <v>32.91143027777485</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="H3" t="n">
-        <v>32.91143027777485</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="I3" t="n">
         <v>2.715192997916426</v>
       </c>
       <c r="J3" t="n">
-        <v>6.606010638615182</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="K3" t="n">
-        <v>6.606010638615182</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="L3" t="n">
-        <v>40.20652398783096</v>
+        <v>36.31570634713221</v>
       </c>
       <c r="M3" t="n">
+        <v>36.31570634713221</v>
+      </c>
+      <c r="N3" t="n">
+        <v>36.31570634713221</v>
+      </c>
+      <c r="O3" t="n">
         <v>68.55862319738975</v>
       </c>
-      <c r="N3" t="n">
-        <v>68.55862319738975</v>
-      </c>
-      <c r="O3" t="n">
+      <c r="P3" t="n">
         <v>102.1591365466055</v>
-      </c>
-      <c r="P3" t="n">
-        <v>135.7596498958213</v>
       </c>
       <c r="Q3" t="n">
         <v>135.7596498958213</v>
       </c>
       <c r="R3" t="n">
-        <v>135.7596498958213</v>
+        <v>105.5634126159629</v>
       </c>
       <c r="S3" t="n">
-        <v>135.7596498958213</v>
+        <v>105.5634126159629</v>
       </c>
       <c r="T3" t="n">
-        <v>135.7596498958213</v>
+        <v>105.5634126159629</v>
       </c>
       <c r="U3" t="n">
-        <v>135.7596498958213</v>
+        <v>105.5634126159629</v>
       </c>
       <c r="V3" t="n">
-        <v>135.7596498958213</v>
+        <v>105.5634126159629</v>
       </c>
       <c r="W3" t="n">
-        <v>135.7596498958213</v>
+        <v>105.5634126159629</v>
       </c>
       <c r="X3" t="n">
-        <v>135.7596498958213</v>
+        <v>105.5634126159629</v>
       </c>
       <c r="Y3" t="n">
-        <v>135.7596498958213</v>
+        <v>105.5634126159629</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>105.5634126159629</v>
+        <v>32.91143027777485</v>
       </c>
       <c r="C4" t="n">
-        <v>105.5634126159629</v>
+        <v>32.91143027777485</v>
       </c>
       <c r="D4" t="n">
-        <v>71.28067274328075</v>
+        <v>32.91143027777485</v>
       </c>
       <c r="E4" t="n">
-        <v>71.28067274328075</v>
+        <v>32.91143027777485</v>
       </c>
       <c r="F4" t="n">
-        <v>36.99793287059858</v>
+        <v>32.91143027777485</v>
       </c>
       <c r="G4" t="n">
-        <v>36.99793287059858</v>
+        <v>32.91143027777485</v>
       </c>
       <c r="H4" t="n">
-        <v>36.99793287059858</v>
+        <v>32.91143027777485</v>
       </c>
       <c r="I4" t="n">
-        <v>2.715192997916426</v>
+        <v>32.91143027777485</v>
       </c>
       <c r="J4" t="n">
-        <v>2.715192997916426</v>
+        <v>20.33943493601357</v>
       </c>
       <c r="K4" t="n">
         <v>2.715192997916426</v>
@@ -4509,31 +4509,31 @@
         <v>135.7596498958213</v>
       </c>
       <c r="Q4" t="n">
-        <v>105.5634126159629</v>
+        <v>135.7596498958213</v>
       </c>
       <c r="R4" t="n">
-        <v>105.5634126159629</v>
+        <v>135.7596498958213</v>
       </c>
       <c r="S4" t="n">
-        <v>105.5634126159629</v>
+        <v>135.7596498958213</v>
       </c>
       <c r="T4" t="n">
-        <v>105.5634126159629</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="U4" t="n">
-        <v>105.5634126159629</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="V4" t="n">
-        <v>105.5634126159629</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="W4" t="n">
-        <v>105.5634126159629</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="X4" t="n">
-        <v>105.5634126159629</v>
+        <v>67.19417015045701</v>
       </c>
       <c r="Y4" t="n">
-        <v>105.5634126159629</v>
+        <v>32.91143027777485</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>48.89374731397731</v>
+        <v>64.20884683652224</v>
       </c>
       <c r="C5" t="n">
-        <v>48.89374731397731</v>
+        <v>64.20884683652224</v>
       </c>
       <c r="D5" t="n">
-        <v>48.89374731397731</v>
+        <v>64.20884683652224</v>
       </c>
       <c r="E5" t="n">
-        <v>48.89374731397731</v>
+        <v>64.20884683652224</v>
       </c>
       <c r="F5" t="n">
+        <v>57.26334608731877</v>
+      </c>
+      <c r="G5" t="n">
         <v>41.94824656477385</v>
       </c>
-      <c r="G5" t="n">
-        <v>3.078485107422247</v>
-      </c>
       <c r="H5" t="n">
-        <v>3.078485107422247</v>
+        <v>41.94824656477385</v>
       </c>
       <c r="I5" t="n">
         <v>3.078485107422247</v>
@@ -4570,22 +4570,22 @@
         <v>3.078485107422247</v>
       </c>
       <c r="K5" t="n">
-        <v>41.17473831177255</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="L5" t="n">
-        <v>41.17473831177255</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="M5" t="n">
-        <v>41.17473831177255</v>
+        <v>34.47469744057084</v>
       </c>
       <c r="N5" t="n">
-        <v>77.73174896241173</v>
+        <v>72.57095064492114</v>
       </c>
       <c r="O5" t="n">
-        <v>115.828002166762</v>
+        <v>110.6672038492714</v>
       </c>
       <c r="P5" t="n">
-        <v>153.9242553711123</v>
+        <v>148.7634570536217</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9242553711123</v>
@@ -4594,25 +4594,25 @@
         <v>115.0544939137607</v>
       </c>
       <c r="S5" t="n">
-        <v>87.76350877132892</v>
+        <v>103.0786082938738</v>
       </c>
       <c r="T5" t="n">
-        <v>87.76350877132892</v>
+        <v>103.0786082938738</v>
       </c>
       <c r="U5" t="n">
-        <v>87.76350877132892</v>
+        <v>64.20884683652224</v>
       </c>
       <c r="V5" t="n">
-        <v>48.89374731397731</v>
+        <v>64.20884683652224</v>
       </c>
       <c r="W5" t="n">
-        <v>48.89374731397731</v>
+        <v>64.20884683652224</v>
       </c>
       <c r="X5" t="n">
-        <v>48.89374731397731</v>
+        <v>64.20884683652224</v>
       </c>
       <c r="Y5" t="n">
-        <v>48.89374731397731</v>
+        <v>64.20884683652224</v>
       </c>
     </row>
     <row r="6">
@@ -4625,70 +4625,70 @@
         <v>115.0544939137607</v>
       </c>
       <c r="C6" t="n">
-        <v>115.0544939137607</v>
+        <v>80.81800802212544</v>
       </c>
       <c r="D6" t="n">
-        <v>115.0544939137607</v>
+        <v>41.94824656477385</v>
       </c>
       <c r="E6" t="n">
-        <v>115.0544939137607</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="F6" t="n">
-        <v>115.0544939137607</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="G6" t="n">
-        <v>76.18473245640914</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="H6" t="n">
-        <v>41.94824656477385</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="I6" t="n">
         <v>3.078485107422247</v>
       </c>
       <c r="J6" t="n">
-        <v>9.385105424419159</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="K6" t="n">
-        <v>9.385105424419159</v>
+        <v>41.17473831177255</v>
       </c>
       <c r="L6" t="n">
-        <v>47.48135862876946</v>
+        <v>41.17473831177255</v>
       </c>
       <c r="M6" t="n">
-        <v>47.48135862876946</v>
+        <v>41.17473831177255</v>
       </c>
       <c r="N6" t="n">
-        <v>47.48135862876946</v>
+        <v>41.17473831177255</v>
       </c>
       <c r="O6" t="n">
-        <v>85.57761183311976</v>
+        <v>77.73174896241173</v>
       </c>
       <c r="P6" t="n">
-        <v>123.6738650374701</v>
+        <v>115.828002166762</v>
       </c>
       <c r="Q6" t="n">
         <v>153.9242553711123</v>
       </c>
       <c r="R6" t="n">
-        <v>115.0544939137607</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="S6" t="n">
-        <v>115.0544939137607</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="T6" t="n">
-        <v>115.0544939137607</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="U6" t="n">
-        <v>115.0544939137607</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="V6" t="n">
-        <v>115.0544939137607</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="W6" t="n">
-        <v>115.0544939137607</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="X6" t="n">
-        <v>115.0544939137607</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="Y6" t="n">
         <v>115.0544939137607</v>
@@ -4704,28 +4704,28 @@
         <v>115.0544939137607</v>
       </c>
       <c r="C7" t="n">
-        <v>115.0544939137607</v>
+        <v>95.90108948244061</v>
       </c>
       <c r="D7" t="n">
-        <v>115.0544939137607</v>
+        <v>57.03132802508901</v>
       </c>
       <c r="E7" t="n">
-        <v>76.18473245640914</v>
+        <v>18.16156656773741</v>
       </c>
       <c r="F7" t="n">
-        <v>76.18473245640914</v>
+        <v>18.16156656773741</v>
       </c>
       <c r="G7" t="n">
-        <v>37.31497099905754</v>
+        <v>18.16156656773741</v>
       </c>
       <c r="H7" t="n">
-        <v>3.078485107422247</v>
+        <v>18.16156656773741</v>
       </c>
       <c r="I7" t="n">
-        <v>3.078485107422247</v>
+        <v>18.16156656773741</v>
       </c>
       <c r="J7" t="n">
-        <v>3.078485107422247</v>
+        <v>18.16156656773741</v>
       </c>
       <c r="K7" t="n">
         <v>3.078485107422247</v>
@@ -4746,28 +4746,28 @@
         <v>153.9242553711123</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.9242553711123</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="R7" t="n">
-        <v>153.9242553711123</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="S7" t="n">
-        <v>153.9242553711123</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="T7" t="n">
-        <v>153.9242553711123</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="U7" t="n">
-        <v>153.9242553711123</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="V7" t="n">
-        <v>153.9242553711123</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="W7" t="n">
-        <v>153.9242553711123</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="X7" t="n">
-        <v>153.9242553711123</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="Y7" t="n">
         <v>115.0544939137607</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>559.2228097187465</v>
+        <v>34.85980637214909</v>
       </c>
       <c r="C8" t="n">
-        <v>382.1199750201462</v>
+        <v>34.85980637214909</v>
       </c>
       <c r="D8" t="n">
-        <v>205.0171403215459</v>
+        <v>34.85980637214909</v>
       </c>
       <c r="E8" t="n">
-        <v>205.0171403215459</v>
+        <v>34.85980637214909</v>
       </c>
       <c r="F8" t="n">
-        <v>27.9143056229456</v>
+        <v>27.91430562294562</v>
       </c>
       <c r="G8" t="n">
-        <v>14.02654450812914</v>
+        <v>14.02654450812917</v>
       </c>
       <c r="H8" t="n">
-        <v>14.02654450812914</v>
+        <v>14.02654450812917</v>
       </c>
       <c r="I8" t="n">
-        <v>14.02654450812914</v>
+        <v>14.02654450812917</v>
       </c>
       <c r="J8" t="n">
-        <v>14.02654450812914</v>
+        <v>14.02654450812917</v>
       </c>
       <c r="K8" t="n">
-        <v>14.02654450812914</v>
+        <v>77.11014663391819</v>
       </c>
       <c r="L8" t="n">
-        <v>187.6050327962273</v>
+        <v>250.6886349220166</v>
       </c>
       <c r="M8" t="n">
-        <v>361.1835210843254</v>
+        <v>292.7606005360709</v>
       </c>
       <c r="N8" t="n">
-        <v>408.5500634657332</v>
+        <v>340.1271429174793</v>
       </c>
       <c r="O8" t="n">
-        <v>582.1285517538313</v>
+        <v>371.5187644837854</v>
       </c>
       <c r="P8" t="n">
-        <v>582.1285517538313</v>
+        <v>545.0972527718839</v>
       </c>
       <c r="Q8" t="n">
-        <v>701.327225406457</v>
+        <v>701.3272254064584</v>
       </c>
       <c r="R8" t="n">
-        <v>701.327225406457</v>
+        <v>648.5374921808519</v>
       </c>
       <c r="S8" t="n">
-        <v>701.327225406457</v>
+        <v>648.5374921808519</v>
       </c>
       <c r="T8" t="n">
-        <v>701.327225406457</v>
+        <v>648.5374921808519</v>
       </c>
       <c r="U8" t="n">
-        <v>701.327225406457</v>
+        <v>648.5374921808519</v>
       </c>
       <c r="V8" t="n">
-        <v>701.327225406457</v>
+        <v>566.168310467951</v>
       </c>
       <c r="W8" t="n">
-        <v>701.327225406457</v>
+        <v>389.0654757693503</v>
       </c>
       <c r="X8" t="n">
-        <v>701.327225406457</v>
+        <v>211.9626410707497</v>
       </c>
       <c r="Y8" t="n">
-        <v>701.327225406457</v>
+        <v>34.85980637214909</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>387.7566632334527</v>
+        <v>188.4795737892562</v>
       </c>
       <c r="C9" t="n">
-        <v>213.3036339523257</v>
+        <v>14.02654450812917</v>
       </c>
       <c r="D9" t="n">
-        <v>213.3036339523257</v>
+        <v>14.02654450812917</v>
       </c>
       <c r="E9" t="n">
-        <v>213.3036339523257</v>
+        <v>14.02654450812917</v>
       </c>
       <c r="F9" t="n">
-        <v>213.3036339523257</v>
+        <v>14.02654450812917</v>
       </c>
       <c r="G9" t="n">
-        <v>75.41259155628993</v>
+        <v>14.02654450812917</v>
       </c>
       <c r="H9" t="n">
-        <v>75.41259155628993</v>
+        <v>14.02654450812917</v>
       </c>
       <c r="I9" t="n">
-        <v>14.02654450812914</v>
+        <v>14.02654450812917</v>
       </c>
       <c r="J9" t="n">
-        <v>91.04961084172234</v>
+        <v>14.02654450812917</v>
       </c>
       <c r="K9" t="n">
-        <v>255.1375588898987</v>
+        <v>14.02654450812917</v>
       </c>
       <c r="L9" t="n">
-        <v>296.6798924178211</v>
+        <v>187.6050327962276</v>
       </c>
       <c r="M9" t="n">
-        <v>364.5147043918873</v>
+        <v>255.4398447702943</v>
       </c>
       <c r="N9" t="n">
-        <v>448.5535469058717</v>
+        <v>339.4786872842792</v>
       </c>
       <c r="O9" t="n">
-        <v>503.2128742869211</v>
+        <v>394.138014665329</v>
       </c>
       <c r="P9" t="n">
-        <v>527.7487371183589</v>
+        <v>527.7487371183599</v>
       </c>
       <c r="Q9" t="n">
-        <v>701.327225406457</v>
+        <v>701.3272254064584</v>
       </c>
       <c r="R9" t="n">
-        <v>701.327225406457</v>
+        <v>701.3272254064584</v>
       </c>
       <c r="S9" t="n">
-        <v>701.327225406457</v>
+        <v>701.3272254064584</v>
       </c>
       <c r="T9" t="n">
-        <v>701.327225406457</v>
+        <v>701.3272254064584</v>
       </c>
       <c r="U9" t="n">
-        <v>701.327225406457</v>
+        <v>701.3272254064584</v>
       </c>
       <c r="V9" t="n">
-        <v>524.2243907078567</v>
+        <v>524.2243907078578</v>
       </c>
       <c r="W9" t="n">
-        <v>524.2243907078567</v>
+        <v>524.2243907078578</v>
       </c>
       <c r="X9" t="n">
-        <v>524.2243907078567</v>
+        <v>524.2243907078578</v>
       </c>
       <c r="Y9" t="n">
-        <v>387.7566632334527</v>
+        <v>356.6949108093243</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>524.2243907078567</v>
+        <v>58.55270328659829</v>
       </c>
       <c r="C10" t="n">
-        <v>481.0400895657364</v>
+        <v>58.55270328659829</v>
       </c>
       <c r="D10" t="n">
-        <v>330.9234501534006</v>
+        <v>58.55270328659829</v>
       </c>
       <c r="E10" t="n">
-        <v>183.0103565710075</v>
+        <v>58.55270328659829</v>
       </c>
       <c r="F10" t="n">
-        <v>183.0103565710075</v>
+        <v>58.55270328659829</v>
       </c>
       <c r="G10" t="n">
-        <v>14.02654450812914</v>
+        <v>58.55270328659829</v>
       </c>
       <c r="H10" t="n">
-        <v>14.02654450812914</v>
+        <v>58.55270328659829</v>
       </c>
       <c r="I10" t="n">
-        <v>14.02654450812914</v>
+        <v>58.55270328659829</v>
       </c>
       <c r="J10" t="n">
-        <v>14.02654450812914</v>
+        <v>14.02654450812917</v>
       </c>
       <c r="K10" t="n">
-        <v>72.14931057288371</v>
+        <v>72.14931057288391</v>
       </c>
       <c r="L10" t="n">
-        <v>202.0528747707594</v>
+        <v>202.0528747707598</v>
       </c>
       <c r="M10" t="n">
-        <v>349.4070924882339</v>
+        <v>349.4070924882345</v>
       </c>
       <c r="N10" t="n">
-        <v>498.6921726831107</v>
+        <v>498.6921726831116</v>
       </c>
       <c r="O10" t="n">
-        <v>620.5648112189915</v>
+        <v>620.5648112189926</v>
       </c>
       <c r="P10" t="n">
-        <v>701.327225406457</v>
+        <v>701.3272254064584</v>
       </c>
       <c r="Q10" t="n">
-        <v>701.327225406457</v>
+        <v>673.2490998877834</v>
       </c>
       <c r="R10" t="n">
-        <v>701.327225406457</v>
+        <v>673.2490998877834</v>
       </c>
       <c r="S10" t="n">
-        <v>701.327225406457</v>
+        <v>673.2490998877834</v>
       </c>
       <c r="T10" t="n">
-        <v>701.327225406457</v>
+        <v>673.2490998877834</v>
       </c>
       <c r="U10" t="n">
-        <v>701.327225406457</v>
+        <v>589.8612073824002</v>
       </c>
       <c r="V10" t="n">
-        <v>701.327225406457</v>
+        <v>412.7583726837995</v>
       </c>
       <c r="W10" t="n">
-        <v>524.2243907078567</v>
+        <v>235.6555379851989</v>
       </c>
       <c r="X10" t="n">
-        <v>524.2243907078567</v>
+        <v>58.55270328659829</v>
       </c>
       <c r="Y10" t="n">
-        <v>524.2243907078567</v>
+        <v>58.55270328659829</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,28 +5029,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
@@ -5059,34 +5059,34 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756267</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913855</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.167399417938</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.528408326419</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
         <v>2129.438138565707</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>768.5380889459591</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
-        <v>599.6019060180522</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>599.6019060180522</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>451.6888124356591</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5208,7 +5208,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5217,34 +5217,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1688.385853854707</v>
+        <v>1566.726839764368</v>
       </c>
       <c r="W13" t="n">
-        <v>1398.968683817746</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="X13" t="n">
-        <v>1170.979132919729</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y13" t="n">
-        <v>950.1865537761988</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,10 +5266,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797189</v>
@@ -5278,10 +5278,10 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,10 +5290,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694708</v>
@@ -5308,22 +5308,22 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5354,25 +5354,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>352.5519571452613</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452613</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718132</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>806.8386896933887</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C16" t="n">
-        <v>637.9025067654818</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D16" t="n">
-        <v>637.9025067654818</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
@@ -5460,28 +5460,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X16" t="n">
-        <v>988.4871545236284</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y16" t="n">
-        <v>988.4871545236284</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797189</v>
@@ -5548,19 +5548,19 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5600,13 +5600,13 @@
         <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>579.1554649516144</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M18" t="n">
-        <v>1176.533952578166</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N18" t="n">
-        <v>1804.131916132773</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
         <v>2129.438138565707</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>878.3568999154069</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>709.4207169875</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D19" t="n">
-        <v>559.3040775751642</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E19" t="n">
-        <v>559.3040775751642</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>412.4141300772538</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
         <v>317.6151975578601</v>
@@ -5697,28 +5697,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199802</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V19" t="n">
-        <v>1616.556199993915</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W19" t="n">
-        <v>1327.139029956954</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X19" t="n">
-        <v>1099.149479058937</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y19" t="n">
-        <v>878.3568999154069</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="20">
@@ -5740,10 +5740,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797189</v>
@@ -5755,7 +5755,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332388</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803938</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>740.5562989961526</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1337.934786622704</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1731.250242493492</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>734.6461798836018</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>565.7099969556949</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D22" t="n">
-        <v>415.5933575433592</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E22" t="n">
-        <v>267.680263960966</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797189</v>
@@ -5955,7 +5955,7 @@
         <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>916.2946447138415</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5977,10 +5977,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797189</v>
@@ -5989,10 +5989,10 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,10 +6001,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694708</v>
@@ -6065,25 +6065,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
-        <v>1074.481071167373</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1702.07903472198</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>464.5051450557705</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578601</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797189</v>
@@ -6171,28 +6171,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1816.58614405608</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1561.901655850193</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6208,55 +6208,55 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
@@ -6265,10 +6265,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,28 +6299,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803938</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>740.5562989961526</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1337.934786622704</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1965.532750177311</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2517.442480416598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>931.4710609784063</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C28" t="n">
-        <v>762.5348780504994</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D28" t="n">
-        <v>612.4182386381636</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E28" t="n">
-        <v>464.5051450557705</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578601</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6423,13 +6423,13 @@
         <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1176.760808297275</v>
       </c>
       <c r="X28" t="n">
-        <v>1113.119525808646</v>
+        <v>948.7712573992578</v>
       </c>
       <c r="Y28" t="n">
-        <v>1113.119525808646</v>
+        <v>727.9786782557277</v>
       </c>
     </row>
     <row r="29">
@@ -6457,10 +6457,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111716</v>
@@ -6472,28 +6472,28 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
@@ -6505,7 +6505,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
@@ -6548,16 +6548,16 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>904.4616873845483</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1501.8401750111</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2129.438138565707</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G31" t="n">
         <v>317.6151975578601</v>
@@ -6618,13 +6618,13 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L31" t="n">
         <v>826.1405381797747</v>
@@ -6648,25 +6648,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>2160.315914855604</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6688,49 +6688,49 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111692</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075785</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
@@ -6742,7 +6742,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6773,22 +6773,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>429.5088224239596</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L33" t="n">
-        <v>924.8344286397185</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M33" t="n">
-        <v>1522.21291626627</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
         <v>2001.151557821488</v>
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>781.8178837532263</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>781.8178837532263</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L34" t="n">
         <v>826.1405381797747</v>
@@ -6891,19 +6891,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1735.557557724331</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1480.873069518444</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1191.455899481483</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>963.466348583466</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>963.466348583466</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6934,22 +6934,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6964,22 +6964,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7019,19 +7019,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M36" t="n">
-        <v>1072.713683962606</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>1700.311647517213</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>2252.2213777565</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>923.4916164683287</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>754.5554335404219</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7137,10 +7137,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1144.284195611859</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>923.4916164683287</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7162,61 +7162,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,28 +7247,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L39" t="n">
-        <v>579.1554649516144</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718132</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>948.5505208511905</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G40" t="n">
         <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782958</v>
@@ -7365,19 +7365,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1895.093223067808</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1640.408734861921</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1350.99156482496</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1350.99156482496</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>1130.19898568143</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7408,28 +7408,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852256</v>
@@ -7453,7 +7453,7 @@
         <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,25 +7487,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M42" t="n">
-        <v>1074.481071167373</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>1702.07903472198</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1030.918378293891</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>861.9821953659846</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>711.8655559536488</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>563.9524623712557</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797189</v>
@@ -7602,19 +7602,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1433.359422267661</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>1212.566843124131</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7645,19 +7645,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355938</v>
@@ -7666,7 +7666,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852256</v>
@@ -7675,7 +7675,7 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T44" t="n">
         <v>4405.252601474785</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>484.8243144841094</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>980.1499206998682</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M45" t="n">
-        <v>1577.52840832642</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>696.7084350851671</v>
+        <v>803.2707707770323</v>
       </c>
       <c r="C46" t="n">
-        <v>530.3315352860773</v>
+        <v>634.3345878491255</v>
       </c>
       <c r="D46" t="n">
-        <v>530.3315352860773</v>
+        <v>484.2179484367897</v>
       </c>
       <c r="E46" t="n">
-        <v>382.4184417036842</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7833,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1327.139029956954</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X46" t="n">
-        <v>1099.149479058937</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y46" t="n">
-        <v>878.3568999154069</v>
+        <v>984.9192356072721</v>
       </c>
     </row>
   </sheetData>
@@ -7981,19 +7981,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>208.3214547517356</v>
+        <v>242.2613672256909</v>
       </c>
       <c r="L2" t="n">
         <v>255.1065912093878</v>
       </c>
       <c r="M2" t="n">
-        <v>248.0411260722765</v>
+        <v>214.1012135983212</v>
       </c>
       <c r="N2" t="n">
-        <v>246.8450950403531</v>
+        <v>212.9051825663978</v>
       </c>
       <c r="O2" t="n">
-        <v>214.5102874732696</v>
+        <v>248.4501999472249</v>
       </c>
       <c r="P2" t="n">
         <v>250.4976661837099</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>122.1609165114202</v>
       </c>
       <c r="K3" t="n">
         <v>129.8481964236088</v>
@@ -8066,19 +8066,19 @@
         <v>161.7463912169474</v>
       </c>
       <c r="M3" t="n">
-        <v>158.2302244077775</v>
+        <v>129.5917403577182</v>
       </c>
       <c r="N3" t="n">
         <v>118.4674613291454</v>
       </c>
       <c r="O3" t="n">
-        <v>164.7587326673596</v>
+        <v>163.3874230724523</v>
       </c>
       <c r="P3" t="n">
         <v>158.4618986107626</v>
       </c>
       <c r="Q3" t="n">
-        <v>133.663080786811</v>
+        <v>167.6029932607663</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,16 +8218,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>240.6620276789126</v>
+        <v>202.1809638361346</v>
       </c>
       <c r="L5" t="n">
         <v>213.5488567752802</v>
       </c>
       <c r="M5" t="n">
-        <v>205.6249188705004</v>
+        <v>237.3382646615596</v>
       </c>
       <c r="N5" t="n">
-        <v>241.2180059126716</v>
+        <v>242.7727963709657</v>
       </c>
       <c r="O5" t="n">
         <v>244.8579146936526</v>
@@ -8236,7 +8236,7 @@
         <v>249.4684271639326</v>
       </c>
       <c r="Q5" t="n">
-        <v>207.1020630664798</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K6" t="n">
-        <v>125.6774978810001</v>
+        <v>164.1585617237782</v>
       </c>
       <c r="L6" t="n">
-        <v>160.6795236990645</v>
+        <v>122.1984598562864</v>
       </c>
       <c r="M6" t="n">
         <v>123.047446830095</v>
@@ -8309,13 +8309,13 @@
         <v>111.7499598249992</v>
       </c>
       <c r="O6" t="n">
-        <v>163.154682530332</v>
+        <v>161.599892072038</v>
       </c>
       <c r="P6" t="n">
         <v>158.0709840006057</v>
       </c>
       <c r="Q6" t="n">
-        <v>160.922075125819</v>
+        <v>168.8471891366353</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>49.16448762095908</v>
+        <v>49.16448762095877</v>
       </c>
       <c r="K8" t="n">
-        <v>22.43379383386525</v>
+        <v>86.15460406193455</v>
       </c>
       <c r="L8" t="n">
-        <v>165.8884044070602</v>
+        <v>165.8884044070601</v>
       </c>
       <c r="M8" t="n">
-        <v>132.8348713879237</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>143.6230976987804</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>7.786846588834663</v>
+        <v>183.1186529404488</v>
       </c>
       <c r="Q8" t="n">
-        <v>174.909638152886</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>48.28995823576906</v>
       </c>
       <c r="K9" t="n">
-        <v>169.3363648062642</v>
+        <v>3.590962737398883</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>133.3698532931068</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8549,10 +8549,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>110.1766258803967</v>
       </c>
       <c r="Q9" t="n">
-        <v>209.1879900744753</v>
+        <v>209.1879900744754</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>-5.458725572646025e-13</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>-1.155557474667594e-12</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>-1.341680421315915e-12</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10357,7 +10357,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>-5.458725572646025e-13</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>96.9464712676137</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23475,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>65.31997266427163</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23661,16 +23661,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>72.11969353038532</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>71.47058471168901</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>71.67319509806909</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>72.11969353038532</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>113.5907959652909</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>63.36835372228704</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,13 +24420,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>60.5430405892383</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24612,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>32.15184655856208</v>
       </c>
       <c r="X28" t="n">
-        <v>194.8566322838563</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,16 +24843,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24888,16 +24888,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>111.7546635373311</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>46.6999868309282</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>26.98982571067634</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25557,13 +25557,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>204.6402955209703</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>67.0712941499385</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
     </row>
     <row r="44">
@@ -26025,19 +26025,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>2.533690297528864</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>65.75554125013227</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>730536.4733945034</v>
+        <v>730536.4733945032</v>
       </c>
     </row>
     <row r="5">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>693393.9373166532</v>
+        <v>693393.9373166531</v>
       </c>
     </row>
     <row r="8">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>693393.9373166532</v>
+        <v>693393.9373166531</v>
       </c>
     </row>
     <row r="12">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778551</v>
+        <v>738937.5928778548</v>
       </c>
       <c r="C2" t="n">
         <v>738937.5928778555</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778551</v>
+        <v>738937.5928778553</v>
       </c>
       <c r="E2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210056</v>
       </c>
       <c r="F2" t="n">
         <v>726431.9397210054</v>
       </c>
       <c r="G2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="H2" t="n">
         <v>726431.9397210054</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>726431.9397210055</v>
+      </c>
+      <c r="J2" t="n">
         <v>726431.939721005</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="L2" t="n">
         <v>726431.9397210054</v>
       </c>
-      <c r="J2" t="n">
-        <v>726431.9397210054</v>
-      </c>
-      <c r="K2" t="n">
-        <v>726431.9397210055</v>
-      </c>
-      <c r="L2" t="n">
-        <v>726431.9397210056</v>
-      </c>
       <c r="M2" t="n">
+        <v>726431.939721005</v>
+      </c>
+      <c r="N2" t="n">
         <v>726431.9397210053</v>
       </c>
-      <c r="N2" t="n">
-        <v>726431.9397210056</v>
-      </c>
       <c r="O2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="P2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210052</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>12401.51063995663</v>
       </c>
       <c r="D3" t="n">
-        <v>343539.4026003645</v>
+        <v>343539.4026003654</v>
       </c>
       <c r="E3" t="n">
-        <v>1086298.016192727</v>
+        <v>1086298.016192726</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>8880.174459335487</v>
+        <v>8880.174459335547</v>
       </c>
       <c r="K3" t="n">
-        <v>1168.747045491171</v>
+        <v>1168.747045491054</v>
       </c>
       <c r="L3" t="n">
-        <v>34635.69127230386</v>
+        <v>34635.69127230395</v>
       </c>
       <c r="M3" t="n">
-        <v>248550.2087575372</v>
+        <v>248550.2087575371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,43 +26423,43 @@
         <v>397057.3584744651</v>
       </c>
       <c r="D4" t="n">
-        <v>305665.765771236</v>
+        <v>305665.7657712358</v>
       </c>
       <c r="E4" t="n">
-        <v>8117.312426731919</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="F4" t="n">
-        <v>8117.312426731919</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="G4" t="n">
-        <v>8117.312426731931</v>
+        <v>8117.312426731975</v>
       </c>
       <c r="H4" t="n">
-        <v>8117.312426731944</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="I4" t="n">
+        <v>8117.312426731974</v>
+      </c>
+      <c r="J4" t="n">
         <v>8117.312426731934</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>8117.31242673194</v>
       </c>
-      <c r="K4" t="n">
-        <v>8117.312426731936</v>
-      </c>
       <c r="L4" t="n">
-        <v>8117.312426731936</v>
+        <v>8117.312426731918</v>
       </c>
       <c r="M4" t="n">
+        <v>8117.312426731974</v>
+      </c>
+      <c r="N4" t="n">
+        <v>8117.31242673194</v>
+      </c>
+      <c r="O4" t="n">
+        <v>8117.312426731934</v>
+      </c>
+      <c r="P4" t="n">
         <v>8117.312426731975</v>
-      </c>
-      <c r="N4" t="n">
-        <v>8117.312426731975</v>
-      </c>
-      <c r="O4" t="n">
-        <v>8117.312426731945</v>
-      </c>
-      <c r="P4" t="n">
-        <v>8117.312426731974</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>36730.71216531784</v>
       </c>
       <c r="D5" t="n">
-        <v>52713.93566685953</v>
+        <v>52713.93566685957</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>268933.8811390054</v>
+        <v>268933.8811390051</v>
       </c>
       <c r="C6" t="n">
         <v>292748.0115981158</v>
       </c>
       <c r="D6" t="n">
-        <v>37018.48883939497</v>
+        <v>37018.48883939451</v>
       </c>
       <c r="E6" t="n">
-        <v>-469453.2979767174</v>
+        <v>-469140.6566477951</v>
       </c>
       <c r="F6" t="n">
-        <v>616844.7182160097</v>
+        <v>617157.3595449307</v>
       </c>
       <c r="G6" t="n">
-        <v>616844.7182160094</v>
+        <v>617157.3595449305</v>
       </c>
       <c r="H6" t="n">
-        <v>616844.718216009</v>
+        <v>617157.3595449307</v>
       </c>
       <c r="I6" t="n">
-        <v>616844.7182160094</v>
+        <v>617157.3595449307</v>
       </c>
       <c r="J6" t="n">
-        <v>607964.5437566739</v>
+        <v>608277.1850855949</v>
       </c>
       <c r="K6" t="n">
-        <v>615675.9711705184</v>
+        <v>615988.6124994396</v>
       </c>
       <c r="L6" t="n">
-        <v>582209.0269437059</v>
+        <v>582521.6682726268</v>
       </c>
       <c r="M6" t="n">
-        <v>368294.509458472</v>
+        <v>368607.1507873932</v>
       </c>
       <c r="N6" t="n">
-        <v>616844.7182160097</v>
+        <v>617157.3595449306</v>
       </c>
       <c r="O6" t="n">
-        <v>616844.7182160094</v>
+        <v>617157.3595449305</v>
       </c>
       <c r="P6" t="n">
-        <v>616844.7182160094</v>
+        <v>617157.3595449305</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>35.02126071912533</v>
       </c>
       <c r="D3" t="n">
-        <v>386.5211853523573</v>
+        <v>386.5211853523582</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26795,10 +26795,10 @@
         <v>38.48106384277808</v>
       </c>
       <c r="D4" t="n">
-        <v>175.3318063516143</v>
+        <v>175.3318063516146</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099649</v>
@@ -26813,7 +26813,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26825,7 +26825,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099649</v>
@@ -26965,10 +26965,10 @@
         <v>12.007878032336</v>
       </c>
       <c r="D3" t="n">
-        <v>351.499924633232</v>
+        <v>351.4999246332329</v>
       </c>
       <c r="E3" t="n">
-        <v>981.4543149893168</v>
+        <v>981.4543149893158</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>4.541151368822746</v>
       </c>
       <c r="D4" t="n">
-        <v>136.8507425088362</v>
+        <v>136.8507425088365</v>
       </c>
       <c r="E4" t="n">
-        <v>997.3764817480346</v>
+        <v>997.3764817480337</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>33.93991247395502</v>
+        <v>33.93991247395525</v>
       </c>
       <c r="K4" t="n">
-        <v>4.541151368822739</v>
+        <v>4.541151368822284</v>
       </c>
       <c r="L4" t="n">
-        <v>136.8507425088362</v>
+        <v>136.8507425088365</v>
       </c>
       <c r="M4" t="n">
-        <v>997.3764817480346</v>
+        <v>997.3764817480339</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>4.541151368822746</v>
       </c>
       <c r="L4" t="n">
-        <v>136.8507425088362</v>
+        <v>136.8507425088365</v>
       </c>
       <c r="M4" t="n">
-        <v>997.3764817480346</v>
+        <v>997.3764817480337</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27393,16 +27393,16 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>396.2890922913352</v>
       </c>
       <c r="H2" t="n">
-        <v>304.5874090169231</v>
+        <v>338.5273214908784</v>
       </c>
       <c r="I2" t="n">
-        <v>199.1011544278539</v>
+        <v>172.9692497154156</v>
       </c>
       <c r="J2" t="n">
-        <v>4.097100052852174</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>110.1176902905148</v>
       </c>
       <c r="S2" t="n">
-        <v>206.9118586999128</v>
+        <v>172.9719462259575</v>
       </c>
       <c r="T2" t="n">
         <v>222.6908602868995</v>
@@ -27438,7 +27438,7 @@
         <v>251.3382516189322</v>
       </c>
       <c r="V2" t="n">
-        <v>293.8123459961796</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27463,13 +27463,13 @@
         <v>138.7685865143604</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>113.5051530906834</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>111.1292999194285</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.2940166796957</v>
@@ -27478,7 +27478,7 @@
         <v>111.757373777286</v>
       </c>
       <c r="I3" t="n">
-        <v>57.79806498122979</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>97.08446202703757</v>
+        <v>67.19018711997774</v>
       </c>
       <c r="S3" t="n">
         <v>170.7637213332854</v>
@@ -27542,13 +27542,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>114.675560544257</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>111.4811355489759</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.9494798159088</v>
@@ -27557,13 +27557,13 @@
         <v>161.8582038473137</v>
       </c>
       <c r="I4" t="n">
-        <v>120.2625580282554</v>
+        <v>154.2024705022108</v>
       </c>
       <c r="J4" t="n">
-        <v>90.42516245839145</v>
+        <v>77.97888707004779</v>
       </c>
       <c r="K4" t="n">
-        <v>17.44799951871617</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>52.79274755892936</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="R4" t="n">
         <v>175.4274210366964</v>
@@ -27590,7 +27590,7 @@
         <v>223.2933741908973</v>
       </c>
       <c r="T4" t="n">
-        <v>227.7682732010226</v>
+        <v>193.8283607270673</v>
       </c>
       <c r="U4" t="n">
         <v>286.3167657450791</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>191.7697429150818</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>184.6447408781395</v>
       </c>
     </row>
     <row r="5">
@@ -27630,13 +27630,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>376.6808846845414</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>338.0329468943008</v>
       </c>
       <c r="I5" t="n">
-        <v>205.0481221176458</v>
+        <v>166.5670582748677</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,16 +27666,16 @@
         <v>102.5442178425012</v>
       </c>
       <c r="S5" t="n">
-        <v>178.7937652353903</v>
+        <v>193.9557137627098</v>
       </c>
       <c r="T5" t="n">
         <v>222.4795457699687</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3343897888113</v>
+        <v>212.8533259460332</v>
       </c>
       <c r="V5" t="n">
-        <v>289.2711946273568</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27697,25 +27697,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>138.8143779555968</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>108.9640017218607</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>119.1640166126229</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>98.78712457096121</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H6" t="n">
-        <v>77.6138060707255</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I6" t="n">
-        <v>48.32201337990931</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>56.99978005760148</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S6" t="n">
         <v>170.2839726213331</v>
@@ -27763,7 +27763,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>167.2016319345263</v>
       </c>
     </row>
     <row r="7">
@@ -27776,10 +27776,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>148.2849507116209</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>110.1344091754343</v>
       </c>
       <c r="E7" t="n">
         <v>107.9528988037911</v>
@@ -27788,10 +27788,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>129.4467624225806</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H7" t="n">
-        <v>127.7715630651583</v>
+        <v>161.6656840978772</v>
       </c>
       <c r="I7" t="n">
         <v>153.551289182031</v>
@@ -27800,7 +27800,7 @@
         <v>88.89425643449839</v>
       </c>
       <c r="K7" t="n">
-        <v>14.93225064571201</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>80.87383288310646</v>
+        <v>42.39276904032837</v>
       </c>
       <c r="R7" t="n">
         <v>174.4537986637794</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>180.1035895093167</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>242.0504701326471</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>189.9410854193933</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>179.3512352690687</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>231.5442393900972</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.5613947208332</v>
+        <v>323.5613947208331</v>
       </c>
       <c r="I8" t="n">
-        <v>150.5709327933335</v>
+        <v>150.5709327933334</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>52.26183589335061</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>173.6116212999465</v>
+        <v>173.6116212999464</v>
       </c>
       <c r="T8" t="n">
         <v>216.2938536289356</v>
@@ -27912,16 +27912,16 @@
         <v>251.2213445869191</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>246.206768574363</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>173.9091623657984</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>194.3992943268544</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>210.906132304439</v>
       </c>
     </row>
     <row r="9">
@@ -27931,7 +27931,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -27946,13 +27946,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.5121319720754</v>
       </c>
       <c r="H9" t="n">
         <v>104.2060135747428</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>60.77218657767911</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,7 +27979,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>48.53902377671886</v>
+        <v>48.53902377671875</v>
       </c>
       <c r="S9" t="n">
         <v>156.2405558211281</v>
@@ -27991,7 +27991,7 @@
         <v>225.8866856868212</v>
       </c>
       <c r="V9" t="n">
-        <v>57.46878079781101</v>
+        <v>57.46878079781067</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -28000,7 +28000,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>70.57964557764436</v>
+        <v>39.82851067775619</v>
       </c>
     </row>
     <row r="10">
@@ -28013,28 +28013,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>124.4943629679287</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.2939739422496</v>
       </c>
       <c r="H10" t="n">
         <v>156.0301607160526</v>
       </c>
       <c r="I10" t="n">
-        <v>134.4896211379862</v>
+        <v>134.4896211379861</v>
       </c>
       <c r="J10" t="n">
-        <v>44.08089719068454</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>27.79734426348843</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>145.9534932992554</v>
+        <v>145.9534932992553</v>
       </c>
       <c r="S10" t="n">
         <v>211.8696945563088</v>
@@ -28067,16 +28067,16 @@
         <v>224.9674753772059</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2810108792431</v>
+        <v>203.7269972989138</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>76.8058369722134</v>
       </c>
       <c r="W10" t="n">
-        <v>111.1911919849767</v>
+        <v>111.1911919849764</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>50.37784903742255</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-8.729525039338373e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>-8.729525039338373e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-8.729525039338373e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-8.729525039338373e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-8.729525039338373e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-8.729525039338373e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-8.729525039338373e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-8.729525039338373e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-8.729525039338373e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>-8.729525039338373e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-8.729525039338373e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-8.729525039338373e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>-8.729525039338373e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>-8.729525039338373e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28803,22 +28803,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>-8.729525039338373e-14</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>-8.729525039338373e-14</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>-8.729525039338373e-14</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-8.729525039338373e-14</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>-8.729525039338373e-14</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28851,13 +28851,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-8.729525039338373e-14</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-8.729525039338373e-14</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>-8.729525039338373e-14</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29328,7 +29328,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -30528,7 +30528,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
     </row>
     <row r="42">
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.553854011466762</v>
+        <v>1.553854011466765</v>
       </c>
       <c r="H8" t="n">
-        <v>15.91340739493398</v>
+        <v>15.91340739493402</v>
       </c>
       <c r="I8" t="n">
-        <v>59.9049567770724</v>
+        <v>59.90495677707253</v>
       </c>
       <c r="J8" t="n">
-        <v>131.8814169057272</v>
+        <v>131.8814169057275</v>
       </c>
       <c r="K8" t="n">
-        <v>197.6560572111153</v>
+        <v>197.6560572111157</v>
       </c>
       <c r="L8" t="n">
-        <v>245.2098169145412</v>
+        <v>245.2098169145418</v>
       </c>
       <c r="M8" t="n">
-        <v>272.8431681909633</v>
+        <v>272.8431681909639</v>
       </c>
       <c r="N8" t="n">
-        <v>277.2580559010432</v>
+        <v>277.2580559010439</v>
       </c>
       <c r="O8" t="n">
-        <v>261.8069200745206</v>
+        <v>261.8069200745212</v>
       </c>
       <c r="P8" t="n">
-        <v>223.4461491664349</v>
+        <v>223.4461491664354</v>
       </c>
       <c r="Q8" t="n">
-        <v>167.7987523807814</v>
+        <v>167.7987523807818</v>
       </c>
       <c r="R8" t="n">
-        <v>97.60728204779907</v>
+        <v>97.60728204779929</v>
       </c>
       <c r="S8" t="n">
-        <v>35.40844828629888</v>
+        <v>35.40844828629896</v>
       </c>
       <c r="T8" t="n">
-        <v>6.801995935195754</v>
+        <v>6.80199593519577</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1243083209173409</v>
+        <v>0.1243083209173412</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8313851911352592</v>
+        <v>0.8313851911352611</v>
       </c>
       <c r="H9" t="n">
-        <v>8.02943066175369</v>
+        <v>8.029430661753707</v>
       </c>
       <c r="I9" t="n">
-        <v>28.6244462737359</v>
+        <v>28.62444627373597</v>
       </c>
       <c r="J9" t="n">
-        <v>78.54766843089746</v>
+        <v>78.54766843089763</v>
       </c>
       <c r="K9" t="n">
-        <v>134.2504762369598</v>
+        <v>134.2504762369601</v>
       </c>
       <c r="L9" t="n">
-        <v>180.5163328383816</v>
+        <v>180.516332838382</v>
       </c>
       <c r="M9" t="n">
-        <v>210.6540460170347</v>
+        <v>210.6540460170352</v>
       </c>
       <c r="N9" t="n">
-        <v>216.2294317944287</v>
+        <v>216.2294317944292</v>
       </c>
       <c r="O9" t="n">
-        <v>197.8076862434842</v>
+        <v>197.8076862434847</v>
       </c>
       <c r="P9" t="n">
-        <v>158.7581072440654</v>
+        <v>158.7581072440658</v>
       </c>
       <c r="Q9" t="n">
-        <v>106.1255903631605</v>
+        <v>106.1255903631607</v>
       </c>
       <c r="R9" t="n">
-        <v>51.61881037592427</v>
+        <v>51.61881037592438</v>
       </c>
       <c r="S9" t="n">
-        <v>15.44261528270974</v>
+        <v>15.44261528270977</v>
       </c>
       <c r="T9" t="n">
-        <v>3.351065748479399</v>
+        <v>3.351065748479406</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0546963941536355</v>
+        <v>0.05469639415363562</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6970054162091689</v>
+        <v>0.6970054162091704</v>
       </c>
       <c r="H10" t="n">
-        <v>6.197011791386979</v>
+        <v>6.197011791386993</v>
       </c>
       <c r="I10" t="n">
-        <v>20.9608537892721</v>
+        <v>20.96085378927215</v>
       </c>
       <c r="J10" t="n">
-        <v>49.27828292598824</v>
+        <v>49.27828292598835</v>
       </c>
       <c r="K10" t="n">
-        <v>80.97935653775615</v>
+        <v>80.97935653775633</v>
       </c>
       <c r="L10" t="n">
-        <v>103.6256961516795</v>
+        <v>103.6256961516798</v>
       </c>
       <c r="M10" t="n">
-        <v>109.2587671972245</v>
+        <v>109.2587671972248</v>
       </c>
       <c r="N10" t="n">
-        <v>106.6608379186268</v>
+        <v>106.660837918627</v>
       </c>
       <c r="O10" t="n">
-        <v>98.51854737472875</v>
+        <v>98.51854737472897</v>
       </c>
       <c r="P10" t="n">
-        <v>84.29963688406163</v>
+        <v>84.29963688406181</v>
       </c>
       <c r="Q10" t="n">
-        <v>58.36469898820596</v>
+        <v>58.36469898820609</v>
       </c>
       <c r="R10" t="n">
-        <v>31.33989807791408</v>
+        <v>31.33989807791415</v>
       </c>
       <c r="S10" t="n">
-        <v>12.14690348066342</v>
+        <v>12.14690348066345</v>
       </c>
       <c r="T10" t="n">
-        <v>2.978114051075539</v>
+        <v>2.978114051075546</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03801847724777289</v>
+        <v>0.03801847724777298</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,40 +31752,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31794,7 +31794,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31843,22 +31843,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>652.0478969157699</v>
       </c>
       <c r="N12" t="n">
-        <v>375.1407109807894</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,7 +31867,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31934,7 +31934,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32074,16 +32074,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>246.2467565146292</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862122</v>
@@ -32092,10 +32092,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32320,7 +32320,7 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>467.1465236515247</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862122</v>
@@ -32329,7 +32329,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>471.1883883160949</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214699</v>
@@ -32548,13 +32548,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473073</v>
@@ -32563,19 +32563,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>528.6300513467554</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32785,28 +32785,28 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>175.6052721551105</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>574.2721069128556</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33022,13 +33022,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473073</v>
@@ -33040,10 +33040,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>169.9530009943068</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33268,19 +33268,19 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>468.9317632522997</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33496,13 +33496,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>175.6052721551105</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473073</v>
@@ -33511,7 +33511,7 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>615.1181176946642</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437244</v>
@@ -33739,13 +33739,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>175.6052721551105</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071786</v>
@@ -33754,7 +33754,7 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>437.853104691376</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33976,13 +33976,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>173.8200325543355</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>516.6542155585828</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071786</v>
@@ -33991,7 +33991,7 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34207,28 +34207,28 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>175.6052721551105</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>574.2721069128556</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34444,34 +34444,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>379.8551982710414</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>404.0195168876591</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742439</v>
@@ -34701,19 +34701,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="L2" t="n">
         <v>33.93991247395533</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>33.93991247395533</v>
-      </c>
-      <c r="N2" t="n">
-        <v>33.93991247395533</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>32.56860287904804</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>3.930118828988642</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -34786,19 +34786,19 @@
         <v>33.93991247395533</v>
       </c>
       <c r="M3" t="n">
-        <v>28.63848405005938</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>33.93991247395533</v>
+        <v>32.56860287904802</v>
       </c>
       <c r="P3" t="n">
         <v>33.93991247395533</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,16 +34938,16 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>31.71334579105918</v>
+      </c>
+      <c r="N5" t="n">
         <v>38.48106384277808</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>36.92627338448402</v>
       </c>
       <c r="O5" t="n">
         <v>38.48106384277808</v>
@@ -34956,7 +34956,7 @@
         <v>38.48106384277808</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>5.212927593424824</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>6.370323552522133</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="L6" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35029,13 +35029,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>38.48106384277808</v>
+        <v>36.92627338448402</v>
       </c>
       <c r="P6" t="n">
         <v>38.48106384277808</v>
       </c>
       <c r="Q6" t="n">
-        <v>30.55594983196189</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,25 +35175,25 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>63.72081022806972</v>
       </c>
       <c r="L8" t="n">
-        <v>175.3318063516143</v>
+        <v>175.3318063516146</v>
       </c>
       <c r="M8" t="n">
-        <v>175.3318063516143</v>
+        <v>42.49693496369113</v>
       </c>
       <c r="N8" t="n">
-        <v>47.84499230445232</v>
+        <v>47.84499230445294</v>
       </c>
       <c r="O8" t="n">
-        <v>175.3318063516143</v>
+        <v>31.70870865283447</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>175.3318063516146</v>
       </c>
       <c r="Q8" t="n">
-        <v>120.4027006592179</v>
+        <v>157.808053166237</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>77.8010771046396</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>165.745402068865</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>41.96195305850745</v>
+        <v>175.3318063516146</v>
       </c>
       <c r="M9" t="n">
-        <v>68.5200120950164</v>
+        <v>68.52001209501688</v>
       </c>
       <c r="N9" t="n">
-        <v>84.88771971109537</v>
+        <v>84.88771971109585</v>
       </c>
       <c r="O9" t="n">
-        <v>55.21144179903979</v>
+        <v>55.21144179904024</v>
       </c>
       <c r="P9" t="n">
-        <v>24.78369982973518</v>
+        <v>134.9603257101323</v>
       </c>
       <c r="Q9" t="n">
-        <v>175.3318063516143</v>
+        <v>175.3318063516146</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>58.70986471187329</v>
+        <v>58.70986471187348</v>
       </c>
       <c r="L10" t="n">
-        <v>131.2157214119957</v>
+        <v>131.2157214119959</v>
       </c>
       <c r="M10" t="n">
-        <v>148.8426441590651</v>
+        <v>148.8426441590653</v>
       </c>
       <c r="N10" t="n">
-        <v>150.7930102978554</v>
+        <v>150.7930102978556</v>
       </c>
       <c r="O10" t="n">
-        <v>123.1036752887684</v>
+        <v>123.1036752887686</v>
       </c>
       <c r="P10" t="n">
-        <v>81.57819614895512</v>
+        <v>81.5781961489553</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>509.9138629937516</v>
       </c>
       <c r="N12" t="n">
-        <v>243.7989988974562</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35579,7 +35579,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35646,7 +35646,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396415</v>
       </c>
       <c r="K14" t="n">
         <v>479.4543240367771</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>108.4053175402702</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35740,10 +35740,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35968,7 +35968,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>328.5921438716505</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35977,7 +35977,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>328.5921438716505</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071396</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.3288951674331</v>
@@ -36211,19 +36211,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>397.2883392634221</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396415</v>
       </c>
       <c r="K23" t="n">
         <v>479.4543240367771</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,28 +36433,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075146</v>
       </c>
       <c r="L24" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>431.6758624684112</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
         <v>479.4543240367771</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.3288951674331</v>
@@ -36688,10 +36688,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>35.9785935799765</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36840,7 +36840,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902934</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193518</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.866084390239</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,19 +36916,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>330.3773834724255</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396396</v>
       </c>
       <c r="K32" t="n">
         <v>479.4543240367771</v>
@@ -37077,7 +37077,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902934</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193518</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075146</v>
       </c>
       <c r="L33" t="n">
         <v>500.3288951674331</v>
@@ -37159,7 +37159,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>483.7764056113309</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
         <v>557.48457599928</v>
@@ -37387,13 +37387,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075146</v>
       </c>
       <c r="L36" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238454</v>
@@ -37402,7 +37402,7 @@
         <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>303.8786972770457</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396415</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K38" t="n">
         <v>479.4543240367771</v>
@@ -37624,13 +37624,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997653</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>374.5201816365645</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238454</v>
@@ -37639,7 +37639,7 @@
         <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396415</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.4543240367771</v>
@@ -37855,28 +37855,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075146</v>
       </c>
       <c r="L42" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>431.6758624684112</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>242.0137592966824</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>265.4651371077849</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
